--- a/static_files/media/profesori.xlsx
+++ b/static_files/media/profesori.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="78">
   <si>
     <t>Profesori</t>
   </si>
@@ -31,28 +31,25 @@
     <t>Voluntar</t>
   </si>
   <si>
-    <t>PETRUSEL Adrian</t>
-  </si>
-  <si>
-    <t>petrusel[at]math.ubbcluj.ro</t>
-  </si>
-  <si>
     <t>da</t>
   </si>
   <si>
     <t>nu vine</t>
   </si>
   <si>
+    <t>8.64</t>
+  </si>
+  <si>
+    <t>Alexandra Pasca</t>
+  </si>
+  <si>
+    <t>AGRATINI Octavian</t>
+  </si>
+  <si>
+    <t>agratini[at]math.ubbcluj.ro</t>
+  </si>
+  <si>
     <t>mail</t>
-  </si>
-  <si>
-    <t>Alexandra Pasca</t>
-  </si>
-  <si>
-    <t>AGRATINI Octavian</t>
-  </si>
-  <si>
-    <t>agratini[at]math.ubbcluj.ro</t>
   </si>
   <si>
     <t>MICU Tudor</t>
@@ -265,15 +262,15 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
+    <font>
+      <color rgb="FF1B1E1F"/>
+      <name val="Tahoma"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color rgb="FF1B1E1F"/>
-      <name val="Tahoma"/>
-    </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -315,13 +312,13 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -585,668 +582,668 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3">
+        <v>5.43</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
+      <c r="E17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>11</v>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="7" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="C30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>11</v>
+      <c r="F30" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
